--- a/数据整理/stocks/A股/上证主板/600572-康恩贝.xlsx
+++ b/数据整理/stocks/A股/上证主板/600572-康恩贝.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -811,7 +812,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -822,17 +823,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -842,13 +863,179 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>159610</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城中证500增强策略ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0824</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006440</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006441</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>8</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.37</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600572-康恩贝.xlsx
+++ b/数据整理/stocks/A股/上证主板/600572-康恩贝.xlsx
@@ -6,9 +6,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,357 +452,65 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>014155</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国泰君安中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>10.44</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.67</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1190</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005313</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>万家中证1000指数增强A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>9.01</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.72</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1099</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>005314</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>万家中证1000指数增强C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.72</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0604</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>014156</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>国泰君安中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>91.67</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0448</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>006729</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>万家中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.64</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.35</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0140</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>009658</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>汇丰晋信中小盘低波动策略股票A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>86.56</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0104</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>006730</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>万家中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.64</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.35</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0082</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>009775</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>汇丰晋信中小盘低波动策略股票C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>86.56</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.37</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -982,64 +690,356 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>014155</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰君安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1190</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005313</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1099</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005314</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0604</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.37</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014156</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰君安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006729</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009658</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006730</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009775</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.56</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600572-康恩贝.xlsx
+++ b/数据整理/stocks/A股/上证主板/600572-康恩贝.xlsx
@@ -7,8 +7,9 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,14 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D2" t="n">
-        <v>0.16</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="3">
@@ -499,13 +500,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>8</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.37</v>
       </c>
     </row>
@@ -515,6 +532,670 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>013910</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴业兴睿两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>46.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5474</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>013911</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴业兴睿两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.81</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8212</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011466</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴业医疗保健混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2190</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010434</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>红土创新医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2072</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008619</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1413</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011467</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴业医疗保健混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.16</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1009</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008618</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0461</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>512190</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>浙商汇金中证浙江凤凰行动50ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014547</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>财通医药鑫选6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009170</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009658</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014548</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>财通医药鑫选6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>015889</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国中证500基本面精选股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009169</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009775</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>015890</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国中证500基本面精选股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -684,7 +1365,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
